--- a/TestData/JTPS-DEVQA/DayRanges.xlsx
+++ b/TestData/JTPS-DEVQA/DayRanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -241,9 +241,6 @@
     <t>txt_Value</t>
   </si>
   <si>
-    <t>Automati</t>
-  </si>
-  <si>
     <t>5.3.0.4</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t>DeleteRow</t>
   </si>
   <si>
-    <t>allrows,value^Automati</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -331,18 +319,6 @@
     <t>scrollandclick</t>
   </si>
   <si>
-    <t>elm_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_yes</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>allrows,value^Automati,Q16Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>Aut</t>
   </si>
   <si>
@@ -368,6 +344,24 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No code for lst or list verification </t>
+  </si>
+  <si>
+    <t>Scrolbar Not validate</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
   </si>
 </sst>
 </file>
@@ -562,7 +556,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,21 +624,38 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,10 +976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1001,52 +1012,52 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="35" t="s">
+      <c r="P1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
@@ -1077,16 +1088,26 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
@@ -1106,21 +1127,31 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M3" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
@@ -1144,17 +1175,25 @@
         <v>3</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="13"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="32"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
@@ -1174,21 +1213,30 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="M5" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
@@ -1212,17 +1260,25 @@
         <v>3</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="13"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
@@ -1246,19 +1302,26 @@
         <v>65</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
@@ -1280,10 +1343,10 @@
       <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>37</v>
@@ -1291,12 +1354,22 @@
       <c r="P8" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="32"/>
     </row>
     <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
@@ -1312,18 +1385,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>37</v>
@@ -1331,10 +1404,20 @@
       <c r="P9" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="32"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
@@ -1358,19 +1441,26 @@
         <v>65</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>42</v>
       </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="32"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
@@ -1392,21 +1482,29 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
@@ -1430,17 +1528,25 @@
         <v>1</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="14"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="34"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
@@ -1464,10 +1570,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>37</v>
@@ -1475,9 +1581,17 @@
       <c r="P13" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3"/>
       <c r="D14" s="20"/>
       <c r="E14" s="4" t="s">
@@ -1501,21 +1615,29 @@
         <v>51</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
@@ -1539,21 +1661,29 @@
         <v>51</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P15" s="22" t="s">
         <v>53</v>
       </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="35"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
@@ -1577,21 +1707,29 @@
         <v>51</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="35"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="24" t="s">
@@ -1615,21 +1753,31 @@
         <v>51</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P17" s="29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="3"/>
       <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
@@ -1653,21 +1801,29 @@
         <v>58</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="35"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="3"/>
       <c r="D19" s="20"/>
       <c r="E19" s="4" t="s">
@@ -1691,21 +1847,29 @@
         <v>51</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="3"/>
       <c r="D20" s="20"/>
       <c r="E20" s="4" t="s">
@@ -1729,19 +1893,27 @@
         <v>51</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
@@ -1765,21 +1937,29 @@
         <v>51</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="3"/>
       <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
@@ -1803,21 +1983,29 @@
         <v>63</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P22" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="35"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="3"/>
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
@@ -1841,17 +2029,25 @@
         <v>1</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O23" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="O23" s="17"/>
       <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="35"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="3"/>
       <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
@@ -1875,21 +2071,29 @@
         <v>64</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="35"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="3"/>
       <c r="D25" s="20"/>
       <c r="E25" s="24" t="s">
@@ -1913,21 +2117,29 @@
         <v>65</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O25" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P25" s="30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="35"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="24" t="s">
@@ -1951,21 +2163,29 @@
         <v>68</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P26" s="30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3"/>
       <c r="D27" s="20"/>
       <c r="E27" s="24" t="s">
@@ -1985,17 +2205,27 @@
       <c r="K27" s="9"/>
       <c r="L27" s="23"/>
       <c r="M27" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="4" t="s">
@@ -2019,21 +2249,29 @@
         <v>65</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="35"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="4" t="s">
@@ -2057,21 +2295,29 @@
         <v>73</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="35"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="4" t="s">
@@ -2092,31 +2338,39 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P30" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="35"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>19</v>
@@ -2133,28 +2387,36 @@
         <v>73</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="35"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>19</v>
@@ -2171,28 +2433,36 @@
         <v>65</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="35"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="3"/>
       <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>19</v>
@@ -2206,24 +2476,30 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="23" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
+        <v>112</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="4" t="s">
@@ -2239,36 +2515,44 @@
         <v>21</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="23" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="35"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>19</v>
@@ -2277,29 +2561,37 @@
         <v>21</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="33">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>18</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="35"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="4" t="s">
@@ -2319,33 +2611,39 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="23" t="s">
-        <v>65</v>
+      <c r="L36" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P36" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
-        <v>18</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="35"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>19</v>
@@ -2356,16 +2654,16 @@
       <c r="I37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="1" t="s">
-        <v>102</v>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>37</v>
@@ -2373,17 +2671,25 @@
       <c r="P37" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="35"/>
+    </row>
+    <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>19</v>
@@ -2392,32 +2698,38 @@
         <v>21</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="19" t="s">
-        <v>47</v>
+      <c r="L38" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="35"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="20"/>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -2432,29 +2744,37 @@
         <v>21</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="8" t="s">
-        <v>108</v>
+      <c r="L39" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="4" t="s">
@@ -2474,32 +2794,40 @@
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="23" t="s">
-        <v>65</v>
+      <c r="L40" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>19</v>
@@ -2512,32 +2840,40 @@
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="8" t="s">
-        <v>109</v>
+      <c r="L41" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>19</v>
@@ -2551,31 +2887,39 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>19</v>
@@ -2589,24 +2933,32 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="23" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="4" t="s">
@@ -2622,36 +2974,44 @@
         <v>21</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="23" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
+        <v>86</v>
+      </c>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>19</v>
@@ -2660,29 +3020,37 @@
         <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="23" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
@@ -2700,34 +3068,42 @@
       <c r="I46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="23" t="s">
-        <v>65</v>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>19</v>
@@ -2740,32 +3116,40 @@
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="8" t="s">
-        <v>65</v>
+      <c r="L47" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
+        <v>37</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>19</v>
@@ -2776,34 +3160,42 @@
       <c r="I48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="1" t="s">
-        <v>102</v>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>19</v>
@@ -2816,32 +3208,40 @@
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="19" t="s">
-        <v>47</v>
+      <c r="L49" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>19</v>
@@ -2858,28 +3258,36 @@
         <v>65</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>19</v>
@@ -2888,29 +3296,37 @@
         <v>21</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="8" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
+        <v>88</v>
+      </c>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="4" t="s">
@@ -2926,36 +3342,44 @@
         <v>21</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="23" t="s">
-        <v>65</v>
+      <c r="L52" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>19</v>
@@ -2964,36 +3388,44 @@
         <v>21</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="8" t="s">
-        <v>51</v>
+      <c r="L53" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="9"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>19</v>
@@ -3002,29 +3434,37 @@
         <v>21</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="8" t="s">
-        <v>51</v>
+      <c r="L54" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="4" t="s">
@@ -3044,32 +3484,40 @@
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="23" t="s">
-        <v>65</v>
+      <c r="L55" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O55" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P55" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>19</v>
@@ -3083,31 +3531,39 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="8" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="9"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="3"/>
       <c r="D57" s="20"/>
       <c r="E57" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>19</v>
@@ -3120,32 +3576,40 @@
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="1" t="s">
-        <v>102</v>
+      <c r="L57" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>19</v>
@@ -3154,36 +3618,42 @@
         <v>21</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="19" t="s">
-        <v>47</v>
+      <c r="L58" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>19</v>
@@ -3196,25 +3666,33 @@
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="8" t="s">
-        <v>92</v>
+      <c r="L59" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="9"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="4" t="s">
@@ -3234,32 +3712,40 @@
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="23" t="s">
-        <v>65</v>
+      <c r="L60" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P60" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>19</v>
@@ -3268,34 +3754,44 @@
         <v>21</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O61" s="17"/>
-      <c r="P61" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="9"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>19</v>
@@ -3308,32 +3804,40 @@
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="8" t="s">
-        <v>88</v>
+      <c r="L62" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P62" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="9"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>19</v>
@@ -3346,30 +3850,38 @@
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="8" t="s">
-        <v>88</v>
+      <c r="L63" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>19</v>
@@ -3386,28 +3898,36 @@
         <v>65</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P64" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="35"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>19</v>
@@ -3420,32 +3940,40 @@
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="8" t="s">
-        <v>65</v>
+      <c r="L65" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P65" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
+        <v>37</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="35"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>19</v>
@@ -3454,34 +3982,44 @@
         <v>21</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="8" t="s">
-        <v>94</v>
+      <c r="L66" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="35"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>19</v>
@@ -3490,36 +4028,44 @@
         <v>21</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="1" t="s">
-        <v>102</v>
+      <c r="L67" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="35"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>19</v>
@@ -3528,36 +4074,44 @@
         <v>21</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="19" t="s">
-        <v>47</v>
+      <c r="L68" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="35"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>19</v>
@@ -3570,32 +4124,40 @@
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="8" t="s">
-        <v>92</v>
+      <c r="L69" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="35"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>19</v>
@@ -3606,34 +4168,41 @@
       <c r="I70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="23" t="s">
         <v>65</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P70" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="35"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>19</v>
@@ -3650,28 +4219,36 @@
         <v>65</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>19</v>
@@ -3684,399 +4261,702 @@
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
-      <c r="L72" s="1" t="s">
-        <v>102</v>
+      <c r="L72" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="35"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="19" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="M74" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P75" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P76" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O77" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O78" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P78" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P79" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="13"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P81" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="M82" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="M83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="M84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
+      <c r="P73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="R73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="S73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="T73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="U73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="V73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="W73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="X73" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="38"/>
+    </row>
+    <row r="75" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="38"/>
+    </row>
+    <row r="76" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="38"/>
+    </row>
+    <row r="77" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+    </row>
+    <row r="78" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="38"/>
+    </row>
+    <row r="79" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+    </row>
+    <row r="80" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+    </row>
+    <row r="81" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+    </row>
+    <row r="83" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+    </row>
+    <row r="84" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+    </row>
+    <row r="85" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+    </row>
+    <row r="86" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>

--- a/TestData/JTPS-DEVQA/DayRanges.xlsx
+++ b/TestData/JTPS-DEVQA/DayRanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Run_TestCase</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Day Ranges</t>
   </si>
 </sst>
 </file>
@@ -980,7 +986,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,8 +1092,12 @@
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -1132,8 +1142,12 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>8</v>

--- a/TestData/JTPS-DEVQA/DayRanges.xlsx
+++ b/TestData/JTPS-DEVQA/DayRanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -67,9 +67,6 @@
     <t>elm_Table</t>
   </si>
   <si>
-    <t>allrows,value^</t>
-  </si>
-  <si>
     <t>DeleteRow</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>5.3.0.3</t>
   </si>
   <si>
-    <t>allrows,value^,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.2.6</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>,setproperty,innertext</t>
-  </si>
-  <si>
     <t>scrollandclick</t>
   </si>
   <si>
@@ -359,6 +350,15 @@
   </si>
   <si>
     <t>Day Ranges</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,94 +1016,94 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1112,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1135,7 +1135,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1143,17 +1143,17 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1197,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1236,10 +1236,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -1291,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1324,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -1347,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>8</v>
@@ -1388,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>8</v>
@@ -1420,12 +1420,12 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="34" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -1434,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>8</v>
@@ -1544,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>8</v>
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1586,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>8</v>
@@ -1600,7 +1600,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>4</v>
@@ -1609,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1632,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>8</v>
@@ -1641,12 +1641,12 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>8</v>
@@ -1687,12 +1687,12 @@
         <v>7</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
@@ -1733,12 +1733,12 @@
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>4</v>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1767,10 +1767,10 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>8</v>
@@ -1779,12 +1779,12 @@
         <v>7</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
@@ -1796,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -1806,7 +1806,7 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -1827,12 +1827,12 @@
         <v>7</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1844,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1864,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -1873,12 +1873,12 @@
         <v>7</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>4</v>
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1910,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -1919,12 +1919,12 @@
         <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>8</v>
@@ -1965,12 +1965,12 @@
         <v>7</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2002,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>8</v>
@@ -2016,7 +2016,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>8</v>
@@ -2057,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>8</v>
@@ -2104,7 +2104,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2133,10 +2133,10 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>8</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
@@ -2179,24 +2179,24 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
@@ -2225,10 +2225,10 @@
       <c r="C27" s="8"/>
       <c r="D27" s="13"/>
       <c r="E27" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>8</v>
@@ -2256,7 +2256,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>8</v>
@@ -2294,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2314,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>8</v>
@@ -2328,7 +2328,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>8</v>
@@ -2373,7 +2373,9 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="M30" s="3" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2404,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>8</v>
@@ -2418,7 +2420,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>4</v>
@@ -2430,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -2450,7 +2452,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>8</v>
@@ -2505,12 +2507,12 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
@@ -2519,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="10"/>
@@ -2549,12 +2551,12 @@
         <v>7</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>4</v>
@@ -2566,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -2586,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>8</v>
@@ -2646,7 +2648,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>4</v>
@@ -2655,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2692,7 +2694,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>4</v>
@@ -2701,10 +2703,10 @@
         <v>3</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -2724,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>8</v>
@@ -2733,12 +2735,12 @@
         <v>7</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="14" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>4</v>
@@ -2770,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>8</v>
@@ -2796,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2816,7 +2818,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>8</v>
@@ -2830,7 +2832,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>4</v>
@@ -2842,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2862,7 +2864,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>8</v>
@@ -2875,7 +2877,9 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="19"/>
+      <c r="L41" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2906,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>8</v>
@@ -2920,7 +2924,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2932,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -3007,12 +3011,12 @@
         <v>7</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -3024,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3044,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>8</v>
@@ -3104,7 +3108,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
@@ -3113,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -3150,7 +3154,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -3159,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -3182,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>8</v>
@@ -3208,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3228,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>8</v>
@@ -3241,7 +3245,9 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="19"/>
+      <c r="L49" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3327,12 +3333,12 @@
         <v>7</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>4</v>
@@ -3344,7 +3350,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3373,12 +3379,12 @@
         <v>7</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3390,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3410,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>8</v>
@@ -3470,7 +3476,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
@@ -3479,10 +3485,10 @@
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -3516,7 +3522,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>4</v>
@@ -3525,10 +3531,10 @@
         <v>3</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -3548,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>8</v>
@@ -3562,7 +3568,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>4</v>
@@ -3574,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -3594,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>8</v>
@@ -3649,12 +3655,12 @@
         <v>7</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3698,7 +3704,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -3707,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -3744,7 +3750,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
@@ -3753,10 +3759,10 @@
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -3790,7 +3796,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>4</v>
@@ -3802,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
@@ -3877,12 +3883,12 @@
         <v>7</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>4</v>
@@ -3891,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="10"/>
@@ -3972,7 +3978,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>4</v>
@@ -3981,10 +3987,10 @@
         <v>3</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -4018,7 +4024,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
@@ -4027,10 +4033,10 @@
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -4059,12 +4065,12 @@
         <v>7</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>4</v>
@@ -4076,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
@@ -4105,12 +4111,12 @@
         <v>7</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="14" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>4</v>

--- a/TestData/JTPS-DEVQA/DayRanges.xlsx
+++ b/TestData/JTPS-DEVQA/DayRanges.xlsx
@@ -986,7 +986,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>4</v>
@@ -1296,7 +1296,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>4</v>

--- a/TestData/JTPS-DEVQA/DayRanges.xlsx
+++ b/TestData/JTPS-DEVQA/DayRanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -352,13 +352,13 @@
     <t>Day Ranges</t>
   </si>
   <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>allrows,value^XYZ,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
-    <t>allrows,value^XYZ</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>allrows,value^X,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>allrows,value^X</t>
   </si>
 </sst>
 </file>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,13 +2858,13 @@
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>8</v>
@@ -2873,12 +2873,12 @@
         <v>7</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="19" t="s">
-        <v>112</v>
+      <c r="L41" s="18">
+        <v>1</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2886,22 +2886,18 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="13"/>
@@ -2910,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>8</v>
@@ -2923,8 +2919,8 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="12" t="s">
-        <v>40</v>
+      <c r="L42" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2936,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2947,7 +2943,7 @@
       <c r="W42" s="2"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
@@ -2956,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>8</v>
@@ -2970,7 +2966,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="12" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2982,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -2993,7 +2989,7 @@
       <c r="W43" s="2"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
@@ -3002,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>8</v>
@@ -3011,12 +3007,12 @@
         <v>7</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="12" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -3028,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3039,7 +3035,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
@@ -3048,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>8</v>
@@ -3057,12 +3053,12 @@
         <v>7</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="12" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3074,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -3085,7 +3081,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
@@ -3094,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>8</v>
@@ -3105,10 +3101,10 @@
       <c r="I46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18" t="s">
-        <v>24</v>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
@@ -3116,17 +3112,17 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
+      <c r="O46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="3"/>
@@ -3151,10 +3147,10 @@
       <c r="I47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="17" t="s">
-        <v>23</v>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -3177,7 +3173,7 @@
       <c r="W47" s="2"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
@@ -3186,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>8</v>
@@ -3199,8 +3195,8 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="12" t="s">
-        <v>5</v>
+      <c r="L48" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3208,17 +3204,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
+      <c r="O48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="3"/>
@@ -3232,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>8</v>
@@ -3245,8 +3241,8 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="19" t="s">
-        <v>112</v>
+      <c r="L49" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -3258,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3278,7 +3274,7 @@
         <v>8</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>8</v>
@@ -3291,8 +3287,8 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="12" t="s">
-        <v>5</v>
+      <c r="L50" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>4</v>
@@ -3304,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -3315,7 +3311,7 @@
       <c r="W50" s="2"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
@@ -3324,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>8</v>
@@ -3333,12 +3329,12 @@
         <v>7</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="15" t="s">
-        <v>26</v>
+      <c r="L51" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>4</v>
@@ -3350,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3396,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3407,7 +3403,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
@@ -3416,7 +3412,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>8</v>
@@ -3425,12 +3421,12 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="12" t="s">
-        <v>5</v>
+      <c r="L53" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>4</v>
@@ -3442,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -3453,7 +3449,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
@@ -3462,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>8</v>
@@ -3475,8 +3471,8 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="18" t="s">
-        <v>24</v>
+      <c r="L54" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
@@ -3484,17 +3480,17 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
+      <c r="O54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="3"/>
@@ -3521,8 +3517,8 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="17" t="s">
-        <v>23</v>
+      <c r="L55" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>4</v>
@@ -3545,7 +3541,7 @@
       <c r="W55" s="2"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
@@ -3554,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>8</v>
@@ -3567,8 +3563,8 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="15" t="s">
-        <v>28</v>
+      <c r="L56" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>4</v>
@@ -3576,17 +3572,17 @@
       <c r="N56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O56" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
+      <c r="O56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="3"/>
@@ -3594,13 +3590,13 @@
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="8"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>8</v>
@@ -3613,8 +3609,8 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="12" t="s">
-        <v>5</v>
+      <c r="L57" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -3626,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
@@ -3640,13 +3636,13 @@
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="13"/>
       <c r="E58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>8</v>
@@ -3655,12 +3651,12 @@
         <v>7</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="15" t="s">
-        <v>29</v>
+      <c r="L58" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3671,17 +3667,19 @@
       <c r="O58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
+      <c r="P58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
@@ -3690,7 +3688,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>8</v>
@@ -3699,12 +3697,12 @@
         <v>7</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="18" t="s">
-        <v>24</v>
+      <c r="L59" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -3712,12 +3710,10 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="O59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" s="10"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
@@ -3749,8 +3745,8 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="17" t="s">
-        <v>23</v>
+      <c r="L60" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
@@ -3773,7 +3769,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
@@ -3795,8 +3791,8 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="15" t="s">
-        <v>28</v>
+      <c r="L61" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>4</v>
@@ -3804,17 +3800,17 @@
       <c r="N61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O61" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
+      <c r="O61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="3"/>
@@ -3828,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>8</v>
@@ -3841,8 +3837,8 @@
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="12" t="s">
-        <v>5</v>
+      <c r="L62" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3854,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -3883,12 +3879,12 @@
         <v>7</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="12" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>4</v>
@@ -3897,9 +3893,11 @@
         <v>3</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P63" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
@@ -3918,7 +3916,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>8</v>
@@ -3927,12 +3925,12 @@
         <v>7</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="12" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>4</v>
@@ -3941,11 +3939,9 @@
         <v>3</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P64" s="11" t="s">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P64" s="11"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
@@ -3953,9 +3949,9 @@
       <c r="U64" s="10"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="9"/>
-    </row>
-    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
@@ -3964,7 +3960,7 @@
         <v>8</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>8</v>
@@ -3977,8 +3973,8 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="18" t="s">
-        <v>24</v>
+      <c r="L65" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>4</v>
@@ -3986,17 +3982,17 @@
       <c r="N65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P65" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
+      <c r="O65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="9"/>
@@ -4023,8 +4019,8 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="17" t="s">
-        <v>23</v>
+      <c r="L66" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
@@ -4047,7 +4043,7 @@
       <c r="W66" s="2"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
@@ -4056,7 +4052,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>8</v>
@@ -4065,12 +4061,12 @@
         <v>7</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="15" t="s">
-        <v>19</v>
+      <c r="L67" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>4</v>
@@ -4078,17 +4074,17 @@
       <c r="N67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O67" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
+      <c r="O67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="9"/>
@@ -4111,12 +4107,12 @@
         <v>7</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="14" t="s">
-        <v>114</v>
+      <c r="L68" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>4</v>
@@ -4128,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -4148,7 +4144,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>8</v>
@@ -4157,12 +4153,12 @@
         <v>7</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="12" t="s">
-        <v>5</v>
+      <c r="L69" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>4</v>
@@ -4174,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -4205,6 +4201,7 @@
       <c r="I70" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="12" t="s">
         <v>5</v>
@@ -4215,17 +4212,17 @@
       <c r="N70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
+      <c r="O70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="9"/>
@@ -4239,7 +4236,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>8</v>
@@ -4250,7 +4247,6 @@
       <c r="I71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="12" t="s">
         <v>5</v>
@@ -4261,20 +4257,20 @@
       <c r="N71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
+      <c r="O71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
-      <c r="X71" s="3"/>
+      <c r="X71" s="9"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -4285,7 +4281,7 @@
         <v>8</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>8</v>
@@ -4311,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
@@ -4320,79 +4316,125 @@
       <c r="U72" s="10"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="9"/>
+      <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="9"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O73" s="3" t="s">
+      <c r="O74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="P74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="S74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="U74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="V74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W73" s="2" t="s">
+      <c r="W74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X73" s="2" t="s">
+      <c r="X74" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/TestData/JTPS-DEVQA/DayRanges.xlsx
+++ b/TestData/JTPS-DEVQA/DayRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
@@ -9,12 +9,46 @@
   <sheets>
     <sheet name="DayRanges" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nelapatla, Ramana M</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nelapatla, Ramana M:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is final version update on 26/02/2016</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="116">
   <si>
     <t>EOF</t>
   </si>
@@ -22,350 +56,353 @@
     <t>elm_close</t>
   </si>
   <si>
+    <t>pJTPS</t>
+  </si>
+  <si>
+    <t>jTPS</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>SetData</t>
+  </si>
+  <si>
+    <t>JTPS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>5.3.2.3</t>
+  </si>
+  <si>
+    <t>elm_SaveRecord</t>
+  </si>
+  <si>
+    <t>5.3.2.2</t>
+  </si>
+  <si>
+    <t>elm_deleteConfirmation</t>
+  </si>
+  <si>
+    <t>5.3.0.6</t>
+  </si>
+  <si>
+    <t>elm_DeleteRecord</t>
+  </si>
+  <si>
+    <t>elm_Table</t>
+  </si>
+  <si>
+    <t>DeleteRow</t>
+  </si>
+  <si>
+    <t>txt_Description</t>
+  </si>
+  <si>
+    <t>value,Test</t>
+  </si>
+  <si>
+    <t>verifydata</t>
+  </si>
+  <si>
+    <t>elm_RefinanceTypes</t>
+  </si>
+  <si>
+    <t>wnd_Reference</t>
+  </si>
+  <si>
+    <t>dbclick</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>objExist</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>5.3.0.5</t>
+  </si>
+  <si>
+    <t>5.3.2.1</t>
+  </si>
+  <si>
+    <t>elm_ErrorShortdescriptiorequired</t>
+  </si>
+  <si>
+    <t>elm_ErrorDescriptionrequired</t>
+  </si>
+  <si>
+    <t>txt_Value</t>
+  </si>
+  <si>
+    <t>elm_+AddRecord</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>elm_duplicateValueUnexpected server error.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>txt_shordescription</t>
+  </si>
+  <si>
+    <t>newtest</t>
+  </si>
+  <si>
+    <t>5.3.0.4</t>
+  </si>
+  <si>
+    <t>5.3.0.3</t>
+  </si>
+  <si>
+    <t>5.2.6</t>
+  </si>
+  <si>
+    <t>DISABLE</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>5.3.0.2</t>
+  </si>
+  <si>
+    <t>Scrolbar Not validate</t>
+  </si>
+  <si>
+    <t>5.3.0.1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>value^8,description^30,shortdescription^15</t>
+  </si>
+  <si>
+    <t>VerifyCell</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>lst_Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>5.2.5</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>elm_ShortDescription</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>elm_Description</t>
+  </si>
+  <si>
+    <t>elm_value</t>
+  </si>
+  <si>
+    <t>English,French,Spanish,Russian</t>
+  </si>
+  <si>
+    <t>5.2.0</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>elm_open</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>scrollandclick</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>elm_Codes</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>lnk_MenuReference</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>lnk_MainMenuMore</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>http://162.70.20.28:16580/stringtest1000/,jtps,AMS1,password,</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>AMS1</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Field_Name6</t>
+  </si>
+  <si>
+    <t>Field_Name5</t>
+  </si>
+  <si>
+    <t>Field_Name4</t>
+  </si>
+  <si>
+    <t>Field_Name3</t>
+  </si>
+  <si>
+    <t>Field_Name2</t>
+  </si>
+  <si>
+    <t>Field_Name1</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>PageId</t>
+  </si>
+  <si>
+    <t>BrwsrId</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>screenshot</t>
+  </si>
+  <si>
+    <t>Testcase_Step_Num</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CaseDesc</t>
+  </si>
+  <si>
+    <t>CaseID</t>
+  </si>
+  <si>
+    <t>Run_TestCase</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>ChargeBasisTypes</t>
+  </si>
+  <si>
+    <t>btn_Ok</t>
+  </si>
+  <si>
+    <t>YX</t>
+  </si>
+  <si>
+    <t>elm_Close</t>
+  </si>
+  <si>
     <t>wnd_DayRanges</t>
   </si>
   <si>
-    <t>pJTPS</t>
-  </si>
-  <si>
-    <t>jTPS</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>SetData</t>
-  </si>
-  <si>
-    <t>JTPS</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>5.3.2.3</t>
-  </si>
-  <si>
-    <t>elm_SaveRecord</t>
-  </si>
-  <si>
-    <t>5.3.2.2</t>
-  </si>
-  <si>
-    <t>btn_Yes</t>
-  </si>
-  <si>
-    <t>elm_deleteConfirmation</t>
-  </si>
-  <si>
-    <t>5.3.0.6</t>
-  </si>
-  <si>
-    <t>elm_DeleteRecord</t>
-  </si>
-  <si>
-    <t>elm_Table</t>
-  </si>
-  <si>
-    <t>DeleteRow</t>
-  </si>
-  <si>
-    <t>txt_Description</t>
-  </si>
-  <si>
-    <t>value,Test</t>
-  </si>
-  <si>
-    <t>verifydata</t>
-  </si>
-  <si>
-    <t>elm_RefinanceTypes</t>
-  </si>
-  <si>
-    <t>wnd_Reference</t>
-  </si>
-  <si>
-    <t>dbclick</t>
+    <t>allrows,value^$</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>allrows,value^$,Description^Automation,short description^Automation</t>
   </si>
   <si>
     <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
-    <t>elm_Changessavedtothedatabase</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>objExist</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>5.3.0.5</t>
-  </si>
-  <si>
-    <t>5.3.2.1</t>
-  </si>
-  <si>
-    <t>elm_ErrorShortdescriptiorequired</t>
-  </si>
-  <si>
-    <t>elm_ErrorDescriptionrequired</t>
-  </si>
-  <si>
-    <t>txt_Value</t>
-  </si>
-  <si>
-    <t>elm_+AddRecord</t>
-  </si>
-  <si>
-    <t>5.3.2</t>
-  </si>
-  <si>
-    <t>elm_duplicateValueUnexpected server error.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>txt_shordescription</t>
-  </si>
-  <si>
-    <t>newtest</t>
-  </si>
-  <si>
-    <t>5.3.0.4</t>
-  </si>
-  <si>
-    <t>5.3.0.3</t>
-  </si>
-  <si>
-    <t>5.2.6</t>
-  </si>
-  <si>
-    <t>DISABLE</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>5.3.0.2</t>
-  </si>
-  <si>
-    <t>Scrolbar Not validate</t>
-  </si>
-  <si>
-    <t>5.3.0.1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>value^8,description^30,shortdescription^15</t>
-  </si>
-  <si>
-    <t>VerifyCell</t>
-  </si>
-  <si>
-    <t>5.2.1</t>
-  </si>
-  <si>
-    <t>lst_Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>5.2.5</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>elm_ShortDescription</t>
-  </si>
-  <si>
-    <t>5.2.2</t>
-  </si>
-  <si>
-    <t>elm_Description</t>
-  </si>
-  <si>
-    <t>elm_value</t>
-  </si>
-  <si>
-    <t>English,French,Spanish,Russian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No code for lst or list verification </t>
-  </si>
-  <si>
-    <t>5.2.0</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>elm_open</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>scrollandclick</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>elm_Codes</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>lnk_MenuReference</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>lnk_MainMenuMore</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>http://162.70.20.28:16580/stringtest1000/,jtps,AMS1,password,</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>AMS1</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Field_Name6</t>
-  </si>
-  <si>
-    <t>Field_Name5</t>
-  </si>
-  <si>
-    <t>Field_Name4</t>
-  </si>
-  <si>
-    <t>Field_Name3</t>
-  </si>
-  <si>
-    <t>Field_Name2</t>
-  </si>
-  <si>
-    <t>Field_Name1</t>
-  </si>
-  <si>
-    <t>Field_Name</t>
-  </si>
-  <si>
-    <t>PageId</t>
-  </si>
-  <si>
-    <t>BrwsrId</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>PWD</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Application Type</t>
-  </si>
-  <si>
-    <t>screenshot</t>
-  </si>
-  <si>
-    <t>Testcase_Step_Num</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>CaseDesc</t>
-  </si>
-  <si>
-    <t>CaseID</t>
-  </si>
-  <si>
-    <t>Run_TestCase</t>
-  </si>
-  <si>
-    <t>TS001</t>
-  </si>
-  <si>
-    <t>Day Ranges</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>allrows,value^X,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
-    <t>allrows,value^X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +438,19 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -459,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -545,17 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -564,7 +603,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -653,9 +692,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -665,20 +701,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -981,12 +1011,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:X74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1036,7 @@
     <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" style="1" customWidth="1"/>
     <col min="17" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1015,113 +1045,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="J1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="K1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="M1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="N1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="P1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="Q1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="S1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="36" t="s">
-        <v>81</v>
+      <c r="T1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1135,48 +1165,48 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1194,19 +1224,19 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1214,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="11"/>
@@ -1236,33 +1266,33 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1279,19 +1309,19 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1299,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="11"/>
@@ -1321,33 +1351,33 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1364,34 +1394,36 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1402,42 +1434,42 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="34" t="s">
-        <v>24</v>
+      <c r="L9" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1454,33 +1486,33 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1497,33 +1529,35 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="M11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="32" t="s">
         <v>1</v>
       </c>
       <c r="Q11" s="10"/>
@@ -1541,19 +1575,19 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1561,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="16"/>
@@ -1575,44 +1609,44 @@
       <c r="U12" s="21"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="31"/>
-    </row>
-    <row r="13" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="X12" s="30"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="17" t="s">
-        <v>23</v>
+      <c r="L13" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1621,90 +1655,90 @@
       <c r="U13" s="3"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="31"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="32" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="31"/>
+      <c r="X14" s="30"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="12" t="s">
-        <v>26</v>
+      <c r="L15" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -1713,44 +1747,44 @@
       <c r="U15" s="10"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="9"/>
+      <c r="X15" s="30"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>35</v>
+        <v>111</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1766,85 +1800,83 @@
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>27</v>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="12" t="s">
-        <v>63</v>
+      <c r="L18" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>53</v>
+        <v>111</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1858,39 +1890,39 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1899,45 +1931,41 @@
       <c r="U19" s="10"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="12" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="18">
+        <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O20" s="32"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -1945,44 +1973,43 @@
       <c r="U20" s="10"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>5</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -1991,44 +2018,44 @@
       <c r="U21" s="10"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>53</v>
+        <v>111</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2045,38 +2072,40 @@
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="18">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="9"/>
@@ -2087,36 +2116,36 @@
       <c r="C24" s="8"/>
       <c r="D24" s="13"/>
       <c r="E24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2132,169 +2161,175 @@
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>6</v>
+      <c r="E25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>51</v>
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="15" t="s">
-        <v>50</v>
+      <c r="L26" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="25"/>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="M27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="12" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>35</v>
+        <v>111</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2308,45 +2343,41 @@
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="12" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="18">
+        <v>1</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O29" s="21"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="9"/>
@@ -2354,39 +2385,39 @@
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="19" t="s">
-        <v>112</v>
+      <c r="L30" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2397,50 +2428,50 @@
       <c r="W30" s="2"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>6</v>
+      <c r="E31" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>5</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
       <c r="X31" s="9"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -2448,90 +2479,86 @@
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>6</v>
+      <c r="E32" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="12" t="s">
-        <v>5</v>
+      <c r="L32" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="E33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="25"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="L33" s="12"/>
       <c r="M33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -2539,36 +2566,36 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="12" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -2585,36 +2612,36 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -2625,142 +2652,142 @@
       <c r="W35" s="2"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="17" t="s">
-        <v>23</v>
+      <c r="L37" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="14" t="s">
-        <v>113</v>
+      <c r="L38" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
       <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -2769,37 +2796,35 @@
       <c r="C39" s="8"/>
       <c r="D39" s="13"/>
       <c r="E39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P39" s="11"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -2815,36 +2840,36 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2853,49 +2878,53 @@
       <c r="U40" s="10"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="3"/>
+      <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="18">
+      <c r="L41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -2903,183 +2932,183 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="19" t="s">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="12" t="s">
-        <v>40</v>
+      <c r="L43" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="12" t="s">
-        <v>5</v>
+      <c r="L44" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="12" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="3"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -3087,134 +3116,134 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="12" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="17" t="s">
-        <v>23</v>
+      <c r="L48" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="3"/>
@@ -3225,36 +3254,36 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="12" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3271,36 +3300,36 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -3317,36 +3346,36 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="12" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3357,42 +3386,42 @@
       <c r="W51" s="2"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="15" t="s">
-        <v>26</v>
+      <c r="L52" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3409,36 +3438,36 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="15" t="s">
-        <v>26</v>
+      <c r="L53" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -3455,33 +3484,33 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>1</v>
@@ -3495,42 +3524,42 @@
       <c r="W54" s="2"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
       <c r="L55" s="18" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -3541,42 +3570,42 @@
       <c r="W55" s="2"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -3593,36 +3622,36 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="15" t="s">
-        <v>28</v>
+      <c r="L57" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
@@ -3636,40 +3665,36 @@
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="8"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="12" t="s">
-        <v>5</v>
+      <c r="L58" s="12">
+        <v>1</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
@@ -3685,132 +3710,134 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="15" t="s">
-        <v>29</v>
+      <c r="L59" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="18" t="s">
-        <v>24</v>
+      <c r="L60" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P60" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="17" t="s">
-        <v>23</v>
+      <c r="L61" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P61" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="3"/>
@@ -3821,36 +3848,36 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -3867,36 +3894,36 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="G63" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="12" t="s">
-        <v>5</v>
+      <c r="L63" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
@@ -3913,35 +3940,37 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P64" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
@@ -3957,82 +3986,82 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="12" t="s">
-        <v>5</v>
+      <c r="L65" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O65" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="9"/>
-    </row>
-    <row r="66" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="18" t="s">
-        <v>24</v>
+      <c r="L66" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -4041,90 +4070,90 @@
       <c r="U66" s="3"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="9"/>
-    </row>
-    <row r="67" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="17" t="s">
-        <v>23</v>
+      <c r="L67" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="9"/>
+      <c r="X67" s="3"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="13"/>
       <c r="E68" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="15" t="s">
-        <v>19</v>
+      <c r="L68" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
@@ -4133,7 +4162,7 @@
       <c r="U68" s="10"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="9"/>
+      <c r="X68" s="3"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -4141,45 +4170,43 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G69" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="14" t="s">
-        <v>114</v>
+      <c r="L69" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="9"/>
+      <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -4187,45 +4214,45 @@
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="12" t="s">
-        <v>5</v>
+      <c r="L70" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="9"/>
+      <c r="X70" s="3"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -4233,44 +4260,45 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="12" t="s">
-        <v>5</v>
+      <c r="L71" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
-      <c r="X71" s="9"/>
+      <c r="X71" s="3"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -4278,36 +4306,36 @@
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="12" t="s">
-        <v>5</v>
+      <c r="L72" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
@@ -4324,36 +4352,36 @@
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
@@ -4362,79 +4390,624 @@
       <c r="U73" s="10"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="9"/>
+      <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="9"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="9"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="9"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="9"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="35">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" s="32"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="9"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="P86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="R86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="S86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U74" s="2" t="s">
+      <c r="U86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V74" s="2" t="s">
+      <c r="V86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W74" s="2" t="s">
+      <c r="W86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X74" s="2" t="s">
+      <c r="X86" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4443,5 +5016,7 @@
     <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>